--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obed\Desktop\OnlineSales\locust\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ObedHinojosaEnriquez\Desktop\Online Sales\Locust\Locust\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D60E3-86D3-433A-987A-4A7EEE6677E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AAE5BC-4BE7-485C-B5F8-E9A11774948A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2175" windowWidth="12150" windowHeight="11385" xr2:uid="{D070A055-2700-4ADA-847E-91242508C199}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{D070A055-2700-4ADA-847E-91242508C199}"/>
   </bookViews>
   <sheets>
     <sheet name="Credit" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IdBrand</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>IdVersion</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,19 +411,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502FBB05-1D95-4F29-A07D-B6E18EAEDCC7}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +445,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -463,7 +469,10 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>2022</v>
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>7826</v>
       </c>
     </row>
   </sheetData>
